--- a/FieldData/2015/xlsx_analysis/10-004 Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/10-004 Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_587B01C1AB69A004E28A217ABBA19EA92834D2EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C39F3769-86FF-4A2A-A4E6-5B8AACD4AE61}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_587B01C1AB69A004E28A217ABBA19EA92834D2EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60ADA964-BCB0-465F-91E3-5E6A13B559EA}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="480" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="109">
   <si>
     <t>PLOT</t>
   </si>
@@ -270,9 +270,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>black cottonwood</t>
   </si>
   <si>
@@ -352,6 +349,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1243,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1434,6 +1437,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1473,9 +1479,16 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2888,10 +2901,10 @@
   <dimension ref="A1:IJ94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2909,29 +2922,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:244" s="27" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="110" t="s">
+      <c r="G1" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="H1" s="97" t="s">
         <v>106</v>
-      </c>
-      <c r="H1" s="110" t="s">
-        <v>107</v>
       </c>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
@@ -3181,16 +3194,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="33">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="34"/>
       <c r="I2" s="26"/>
@@ -3440,14 +3453,14 @@
       <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>42</v>
+      <c r="D3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="F3" s="33">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>7</v>
@@ -3695,19 +3708,19 @@
         <v>38</v>
       </c>
       <c r="B4" s="28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>44</v>
+      <c r="D4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="33">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>7</v>
@@ -3955,26 +3968,24 @@
         <v>38</v>
       </c>
       <c r="B5" s="28">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>46</v>
+      <c r="D5" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="F5" s="33">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="34">
-        <v>216</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H5" s="34"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -4217,22 +4228,22 @@
         <v>38</v>
       </c>
       <c r="B6" s="28">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="29">
         <v>1</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="33">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="26"/>
@@ -4477,22 +4488,22 @@
         <v>38</v>
       </c>
       <c r="B7" s="28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>47</v>
+      <c r="D7" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F7" s="33">
-        <v>0.5</v>
+        <v>19</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="26"/>
@@ -4737,19 +4748,23 @@
         <v>38</v>
       </c>
       <c r="B8" s="28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F8" s="33">
-        <v>36</v>
-      </c>
-      <c r="G8" s="28"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" s="34"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
@@ -4993,22 +5008,22 @@
         <v>38</v>
       </c>
       <c r="B9" s="28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="33">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="26"/>
@@ -5253,22 +5268,22 @@
         <v>38</v>
       </c>
       <c r="B10" s="28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="29">
         <v>1</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>53</v>
+      <c r="D10" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F10" s="33">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="26"/>
@@ -5513,7 +5528,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="29">
         <v>1</v>
@@ -5525,7 +5540,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="33">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>7</v>
@@ -5773,19 +5788,23 @@
         <v>38</v>
       </c>
       <c r="B12" s="28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F12" s="33">
-        <v>10</v>
-      </c>
-      <c r="G12" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="H12" s="34"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
@@ -6029,22 +6048,22 @@
         <v>38</v>
       </c>
       <c r="B13" s="28">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C13" s="29">
         <v>1</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F13" s="33">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="26"/>
@@ -6289,26 +6308,24 @@
         <v>38</v>
       </c>
       <c r="B14" s="28">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C14" s="29">
         <v>1</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="33">
         <v>45</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="33">
-        <v>15</v>
-      </c>
       <c r="G14" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="34">
-        <v>207</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H14" s="34"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -6551,24 +6568,24 @@
         <v>38</v>
       </c>
       <c r="B15" s="28">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15" s="29">
         <v>1</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>53</v>
+      <c r="D15" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="33">
-        <v>1</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="F15" s="34">
+        <v>3</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="38"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -6811,24 +6828,24 @@
         <v>38</v>
       </c>
       <c r="B16" s="28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="29">
         <v>1</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="28" t="s">
+      <c r="D16" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="34">
+        <v>8</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -7071,20 +7088,24 @@
         <v>38</v>
       </c>
       <c r="B17" s="28">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="33">
-        <v>46</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="F17" s="34">
+        <v>7</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="38"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -7327,24 +7348,24 @@
         <v>38</v>
       </c>
       <c r="B18" s="28">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C18" s="29">
         <v>1</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="33">
-        <v>55</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="F18" s="34">
+        <v>4</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="38"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -7587,26 +7608,24 @@
         <v>38</v>
       </c>
       <c r="B19" s="28">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>45</v>
+      <c r="D19" s="112" t="s">
+        <v>50</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F19" s="33">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="34">
-        <v>188</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H19" s="34"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
@@ -7849,22 +7868,22 @@
         <v>38</v>
       </c>
       <c r="B20" s="28">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C20" s="29">
         <v>1</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F20" s="33">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="26"/>
@@ -8109,19 +8128,23 @@
         <v>38</v>
       </c>
       <c r="B21" s="28">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" s="29">
         <v>1</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="31" t="s">
+        <v>55</v>
+      </c>
       <c r="E21" s="32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F21" s="33">
-        <v>27</v>
-      </c>
-      <c r="G21" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="H21" s="34"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
@@ -8365,22 +8388,22 @@
         <v>38</v>
       </c>
       <c r="B22" s="28">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F22" s="33">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="26"/>
@@ -8625,22 +8648,22 @@
         <v>38</v>
       </c>
       <c r="B23" s="28">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="33">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="26"/>
@@ -8885,7 +8908,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="28">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
@@ -8897,7 +8920,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="33">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>79</v>
@@ -9145,22 +9168,22 @@
         <v>38</v>
       </c>
       <c r="B25" s="28">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C25" s="29">
         <v>1</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F25" s="33">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="26"/>
@@ -9405,19 +9428,19 @@
         <v>38</v>
       </c>
       <c r="B26" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="29">
         <v>1</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="F26" s="33">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>79</v>
@@ -9665,22 +9688,22 @@
         <v>38</v>
       </c>
       <c r="B27" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="29">
         <v>1</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="26"/>
@@ -9925,24 +9948,24 @@
         <v>38</v>
       </c>
       <c r="B28" s="28">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="29">
         <v>1</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="33">
-        <v>4</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="34">
+        <v>40</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="38"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
@@ -10185,26 +10208,24 @@
         <v>38</v>
       </c>
       <c r="B29" s="28">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29" s="29">
         <v>1</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="33">
-        <v>40</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="34">
-        <v>105</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F29" s="34">
+        <v>30</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="38"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -10447,26 +10468,24 @@
         <v>38</v>
       </c>
       <c r="B30" s="28">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" s="29">
         <v>1</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="33">
-        <v>7</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="34">
-        <v>184</v>
-      </c>
+      <c r="D30" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="34">
+        <v>100</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="38"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -10709,24 +10728,24 @@
         <v>38</v>
       </c>
       <c r="B31" s="28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="29">
         <v>1</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="33">
-        <v>27</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="34"/>
+        <v>56</v>
+      </c>
+      <c r="F31" s="34">
+        <v>4</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="38"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
@@ -10969,24 +10988,24 @@
         <v>38</v>
       </c>
       <c r="B32" s="28">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C32" s="29">
         <v>1</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="33">
-        <v>2</v>
-      </c>
-      <c r="G32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="34">
+        <v>40</v>
+      </c>
+      <c r="G32" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="34"/>
+      <c r="H32" s="38"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
@@ -11229,21 +11248,24 @@
         <v>38</v>
       </c>
       <c r="B33" s="28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="29">
         <v>1</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="33">
-        <f>100-SUM(F29:F32)</f>
-        <v>24</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="34"/>
+      <c r="D33" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="34">
+        <v>2</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="38"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -11486,7 +11508,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="28">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C34" s="29">
         <v>1</v>
@@ -11498,7 +11520,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="33">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>6</v>
@@ -11746,24 +11768,26 @@
         <v>38</v>
       </c>
       <c r="B35" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="29">
         <v>1</v>
       </c>
-      <c r="D35" s="31" t="s">
-        <v>41</v>
+      <c r="D35" s="111" t="s">
+        <v>45</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F35" s="33">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="H35" s="34">
+        <v>216</v>
+      </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
@@ -12006,22 +12030,22 @@
         <v>38</v>
       </c>
       <c r="B36" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="29">
         <v>1</v>
       </c>
       <c r="D36" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="33">
         <v>50</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="33">
-        <v>2</v>
-      </c>
       <c r="G36" s="28" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H36" s="34"/>
       <c r="I36" s="26"/>
@@ -12266,7 +12290,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C37" s="29">
         <v>1</v>
@@ -12278,7 +12302,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="33">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>6</v>
@@ -12526,19 +12550,19 @@
         <v>38</v>
       </c>
       <c r="B38" s="28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C38" s="29">
         <v>1</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>49</v>
+      <c r="D38" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F38" s="33">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>6</v>
@@ -12786,24 +12810,26 @@
         <v>38</v>
       </c>
       <c r="B39" s="28">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C39" s="29">
         <v>1</v>
       </c>
-      <c r="D39" s="31" t="s">
-        <v>55</v>
+      <c r="D39" s="111" t="s">
+        <v>45</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F39" s="33">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="H39" s="34">
+        <v>207</v>
+      </c>
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
@@ -13046,22 +13072,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="28">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C40" s="29">
         <v>1</v>
       </c>
-      <c r="D40" s="31" t="s">
-        <v>59</v>
+      <c r="D40" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F40" s="33">
+        <v>1</v>
+      </c>
+      <c r="G40" s="28" t="s">
         <v>6</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>80</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="26"/>
@@ -13306,19 +13332,19 @@
         <v>38</v>
       </c>
       <c r="B41" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C41" s="29">
         <v>1</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="F41" s="33">
-        <v>0.8</v>
+        <v>55</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>6</v>
@@ -13566,20 +13592,26 @@
         <v>38</v>
       </c>
       <c r="B42" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C42" s="29">
         <v>1</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="28" t="s">
-        <v>52</v>
+      <c r="D42" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="F42" s="33">
-        <v>21</v>
-      </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="34">
+        <v>188</v>
+      </c>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -13822,22 +13854,22 @@
         <v>38</v>
       </c>
       <c r="B43" s="28">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C43" s="29">
         <v>1</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="33">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" s="34"/>
       <c r="I43" s="26"/>
@@ -14082,7 +14114,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="28">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C44" s="29">
         <v>1</v>
@@ -14094,7 +14126,7 @@
         <v>40</v>
       </c>
       <c r="F44" s="33">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>6</v>
@@ -14342,24 +14374,26 @@
         <v>38</v>
       </c>
       <c r="B45" s="28">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C45" s="29">
         <v>1</v>
       </c>
-      <c r="D45" s="37" t="s">
-        <v>47</v>
+      <c r="D45" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F45" s="33">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="H45" s="34">
+        <v>105</v>
+      </c>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -14602,7 +14636,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="28">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C46" s="29">
         <v>1</v>
@@ -14614,12 +14648,14 @@
         <v>46</v>
       </c>
       <c r="F46" s="33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="34"/>
+      <c r="H46" s="34">
+        <v>184</v>
+      </c>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
@@ -14862,22 +14898,22 @@
         <v>38</v>
       </c>
       <c r="B47" s="28">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C47" s="29">
         <v>1</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F47" s="33">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="26"/>
@@ -15122,7 +15158,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48" s="29">
         <v>1</v>
@@ -15134,7 +15170,7 @@
         <v>40</v>
       </c>
       <c r="F48" s="33">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>6</v>
@@ -15382,22 +15418,22 @@
         <v>38</v>
       </c>
       <c r="B49" s="28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C49" s="29">
         <v>1</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F49" s="33">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H49" s="34"/>
       <c r="I49" s="26"/>
@@ -15642,22 +15678,22 @@
         <v>38</v>
       </c>
       <c r="B50" s="28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C50" s="29">
         <v>1</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="F50" s="33">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H50" s="34"/>
       <c r="I50" s="26"/>
@@ -15902,22 +15938,22 @@
         <v>38</v>
       </c>
       <c r="B51" s="28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51" s="29">
         <v>1</v>
       </c>
-      <c r="D51" s="37" t="s">
-        <v>47</v>
+      <c r="D51" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F51" s="33">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="H51" s="34"/>
       <c r="I51" s="26"/>
@@ -16162,22 +16198,22 @@
         <v>38</v>
       </c>
       <c r="B52" s="28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C52" s="29">
         <v>1</v>
       </c>
-      <c r="D52" s="31" t="s">
-        <v>59</v>
+      <c r="D52" s="111" t="s">
+        <v>45</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F52" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="H52" s="34"/>
       <c r="I52" s="26"/>
@@ -16422,26 +16458,24 @@
         <v>38</v>
       </c>
       <c r="B53" s="28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C53" s="29">
         <v>1</v>
       </c>
-      <c r="D53" s="39" t="s">
-        <v>45</v>
+      <c r="D53" s="112" t="s">
+        <v>39</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F53" s="33">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="34">
-        <v>209</v>
-      </c>
+      <c r="H53" s="34"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
@@ -16689,19 +16723,21 @@
       <c r="C54" s="29">
         <v>1</v>
       </c>
-      <c r="D54" s="31" t="s">
-        <v>41</v>
+      <c r="D54" s="111" t="s">
+        <v>45</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F54" s="33">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="H54" s="34">
+        <v>209</v>
+      </c>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
@@ -17469,17 +17505,17 @@
       <c r="C57" s="29">
         <v>1</v>
       </c>
-      <c r="D57" s="37" t="s">
-        <v>47</v>
+      <c r="D57" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F57" s="33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="H57" s="34"/>
       <c r="I57" s="26"/>
@@ -17724,19 +17760,19 @@
         <v>38</v>
       </c>
       <c r="B58" s="28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C58" s="29">
         <v>1</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F58" s="33">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>6</v>
@@ -17990,16 +18026,16 @@
         <v>1</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="F59" s="33">
-        <v>40</v>
+        <v>0.5</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H59" s="34"/>
       <c r="I59" s="26"/>
@@ -18250,18 +18286,18 @@
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="33">
-        <v>30</v>
-      </c>
-      <c r="G60" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="34">
+        <v>2</v>
+      </c>
+      <c r="G60" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="34"/>
+      <c r="H60" s="38"/>
       <c r="I60" s="26"/>
       <c r="J60" s="26"/>
       <c r="K60" s="26"/>
@@ -18504,24 +18540,24 @@
         <v>38</v>
       </c>
       <c r="B61" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61" s="29">
         <v>1</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="33">
-        <v>4</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" s="34"/>
+        <v>63</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="34">
+        <v>6</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="38"/>
       <c r="I61" s="26"/>
       <c r="J61" s="26"/>
       <c r="K61" s="26"/>
@@ -18764,24 +18800,24 @@
         <v>38</v>
       </c>
       <c r="B62" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C62" s="29">
         <v>1</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G62" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="34">
+        <v>4</v>
+      </c>
+      <c r="G62" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="34"/>
+      <c r="H62" s="38"/>
       <c r="I62" s="26"/>
       <c r="J62" s="26"/>
       <c r="K62" s="26"/>
@@ -19024,22 +19060,22 @@
         <v>38</v>
       </c>
       <c r="B63" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C63" s="29">
         <v>1</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>42</v>
+        <v>71</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="F63" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H63" s="38"/>
       <c r="I63" s="26"/>
@@ -19284,19 +19320,19 @@
         <v>38</v>
       </c>
       <c r="B64" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C64" s="29">
         <v>1</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F64" s="34">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>6</v>
@@ -19550,16 +19586,16 @@
         <v>1</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F65" s="34">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H65" s="38"/>
       <c r="I65" s="26"/>
@@ -19810,16 +19846,16 @@
         <v>1</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F66" s="34">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H66" s="38"/>
       <c r="I66" s="26"/>
@@ -20064,19 +20100,19 @@
         <v>38</v>
       </c>
       <c r="B67" s="28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C67" s="29">
         <v>1</v>
       </c>
-      <c r="D67" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>64</v>
+      <c r="D67" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="F67" s="34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>6</v>
@@ -20324,19 +20360,19 @@
         <v>38</v>
       </c>
       <c r="B68" s="28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C68" s="29">
         <v>1</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F68" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>6</v>
@@ -20584,19 +20620,19 @@
         <v>38</v>
       </c>
       <c r="B69" s="28">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C69" s="29">
         <v>1</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>72</v>
+        <v>39</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="F69" s="34">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>6</v>
@@ -20844,19 +20880,19 @@
         <v>38</v>
       </c>
       <c r="B70" s="28">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C70" s="29">
         <v>1</v>
       </c>
-      <c r="D70" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>70</v>
+      <c r="D70" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="F70" s="34">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>6</v>
@@ -21104,19 +21140,19 @@
         <v>38</v>
       </c>
       <c r="B71" s="28">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C71" s="29">
         <v>1</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F71" s="34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>6</v>
@@ -21364,7 +21400,7 @@
         <v>38</v>
       </c>
       <c r="B72" s="28">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C72" s="29">
         <v>1</v>
@@ -21376,7 +21412,7 @@
         <v>40</v>
       </c>
       <c r="F72" s="34">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>6</v>
@@ -21624,19 +21660,23 @@
         <v>38</v>
       </c>
       <c r="B73" s="28">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C73" s="29">
         <v>1</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="32" t="s">
-        <v>52</v>
+      <c r="D73" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="F73" s="34">
-        <v>27</v>
-      </c>
-      <c r="G73" s="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="H73" s="38"/>
       <c r="I73" s="26"/>
       <c r="J73" s="26"/>
@@ -21880,22 +21920,22 @@
         <v>38</v>
       </c>
       <c r="B74" s="28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C74" s="29">
         <v>1</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>51</v>
+      <c r="D74" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="F74" s="34">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H74" s="38"/>
       <c r="I74" s="26"/>
@@ -22140,19 +22180,19 @@
         <v>38</v>
       </c>
       <c r="B75" s="28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C75" s="29">
         <v>1</v>
       </c>
-      <c r="D75" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>46</v>
+      <c r="D75" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="F75" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>6</v>
@@ -22400,19 +22440,19 @@
         <v>38</v>
       </c>
       <c r="B76" s="28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C76" s="29">
         <v>1</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="F76" s="34">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>6</v>
@@ -22665,14 +22705,14 @@
       <c r="C77" s="29">
         <v>1</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>39</v>
+      <c r="D77" s="111" t="s">
+        <v>45</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F77" s="34">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>6</v>
@@ -22920,24 +22960,24 @@
         <v>38</v>
       </c>
       <c r="B78" s="28">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C78" s="29">
         <v>1</v>
       </c>
-      <c r="D78" s="39" t="s">
-        <v>45</v>
+      <c r="D78" s="112" t="s">
+        <v>59</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F78" s="34">
-        <v>7</v>
-      </c>
-      <c r="G78" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="33">
         <v>6</v>
       </c>
-      <c r="H78" s="38"/>
+      <c r="G78" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="34"/>
       <c r="I78" s="26"/>
       <c r="J78" s="26"/>
       <c r="K78" s="26"/>
@@ -23180,24 +23220,24 @@
         <v>38</v>
       </c>
       <c r="B79" s="28">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C79" s="29">
         <v>1</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F79" s="34">
-        <v>8</v>
-      </c>
-      <c r="G79" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="F79" s="33">
+        <v>1</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="34"/>
       <c r="I79" s="26"/>
       <c r="J79" s="26"/>
       <c r="K79" s="26"/>
@@ -23455,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="H80" s="38"/>
       <c r="I80" s="26"/>
@@ -23700,24 +23740,24 @@
         <v>38</v>
       </c>
       <c r="B81" s="28">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C81" s="29">
         <v>1</v>
       </c>
-      <c r="D81" s="31" t="s">
-        <v>55</v>
+      <c r="D81" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" s="34">
-        <v>4</v>
-      </c>
-      <c r="G81" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H81" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="F81" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" s="34"/>
       <c r="I81" s="26"/>
       <c r="J81" s="26"/>
       <c r="K81" s="26"/>
@@ -23960,24 +24000,24 @@
         <v>38</v>
       </c>
       <c r="B82" s="28">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C82" s="29">
         <v>1</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F82" s="34">
+        <v>57</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="33">
         <v>5</v>
       </c>
-      <c r="G82" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="38"/>
+      <c r="G82" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" s="34"/>
       <c r="I82" s="26"/>
       <c r="J82" s="26"/>
       <c r="K82" s="26"/>
@@ -24220,24 +24260,24 @@
         <v>38</v>
       </c>
       <c r="B83" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" s="29">
         <v>1</v>
       </c>
-      <c r="D83" s="31" t="s">
-        <v>39</v>
+      <c r="D83" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" s="34">
-        <v>95</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H83" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="F83" s="33">
+        <v>13</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" s="34"/>
       <c r="I83" s="26"/>
       <c r="J83" s="26"/>
       <c r="K83" s="26"/>
@@ -24480,24 +24520,24 @@
         <v>38</v>
       </c>
       <c r="B84" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C84" s="29">
         <v>1</v>
       </c>
-      <c r="D84" s="31" t="s">
-        <v>41</v>
+      <c r="D84" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F84" s="34">
-        <v>7</v>
-      </c>
-      <c r="G84" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="F84" s="33">
+        <v>1</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" s="34"/>
       <c r="I84" s="26"/>
       <c r="J84" s="26"/>
       <c r="K84" s="26"/>
@@ -24740,24 +24780,24 @@
         <v>38</v>
       </c>
       <c r="B85" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="29">
         <v>1</v>
       </c>
-      <c r="D85" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F85" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H85" s="38"/>
+      <c r="D85" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="33">
+        <v>2</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" s="34"/>
       <c r="I85" s="26"/>
       <c r="J85" s="26"/>
       <c r="K85" s="26"/>
@@ -25000,24 +25040,22 @@
         <v>38</v>
       </c>
       <c r="B86" s="28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C86" s="29">
         <v>1</v>
       </c>
-      <c r="D86" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F86" s="34">
-        <v>40</v>
-      </c>
-      <c r="G86" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H86" s="38"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" s="33">
+        <v>36</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H86" s="34"/>
       <c r="I86" s="26"/>
       <c r="J86" s="26"/>
       <c r="K86" s="26"/>
@@ -25260,24 +25298,22 @@
         <v>38</v>
       </c>
       <c r="B87" s="28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C87" s="29">
         <v>1</v>
       </c>
-      <c r="D87" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="D87" s="114"/>
       <c r="E87" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F87" s="34">
-        <v>2</v>
-      </c>
-      <c r="G87" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="F87" s="33">
+        <v>10</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H87" s="34"/>
       <c r="I87" s="26"/>
       <c r="J87" s="26"/>
       <c r="K87" s="26"/>
@@ -25520,24 +25556,22 @@
         <v>38</v>
       </c>
       <c r="B88" s="28">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C88" s="29">
         <v>1</v>
       </c>
-      <c r="D88" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E88" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F88" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G88" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="38"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="33">
+        <v>46</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H88" s="34"/>
       <c r="I88" s="26"/>
       <c r="J88" s="26"/>
       <c r="K88" s="26"/>
@@ -25780,7 +25814,7 @@
         <v>38</v>
       </c>
       <c r="B89" s="28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" s="29">
         <v>1</v>
@@ -25789,11 +25823,13 @@
       <c r="E89" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="34">
-        <v>58</v>
-      </c>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
+      <c r="F89" s="33">
+        <v>27</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89" s="34"/>
       <c r="I89" s="26"/>
       <c r="J89" s="26"/>
       <c r="K89" s="26"/>
@@ -26036,24 +26072,22 @@
         <v>38</v>
       </c>
       <c r="B90" s="28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" s="29">
         <v>1</v>
       </c>
-      <c r="D90" s="31" t="s">
-        <v>39</v>
-      </c>
+      <c r="D90" s="31"/>
       <c r="E90" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" s="34">
-        <v>82</v>
-      </c>
-      <c r="G90" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H90" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="F90" s="33">
+        <v>24</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H90" s="34"/>
       <c r="I90" s="26"/>
       <c r="J90" s="26"/>
       <c r="K90" s="26"/>
@@ -26296,24 +26330,22 @@
         <v>38</v>
       </c>
       <c r="B91" s="28">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C91" s="29">
         <v>1</v>
       </c>
-      <c r="D91" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E91" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F91" s="34">
-        <v>5</v>
-      </c>
-      <c r="G91" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" s="38"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" s="33">
+        <v>21</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H91" s="34"/>
       <c r="I91" s="26"/>
       <c r="J91" s="26"/>
       <c r="K91" s="26"/>
@@ -26556,22 +26588,20 @@
         <v>38</v>
       </c>
       <c r="B92" s="28">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C92" s="29">
         <v>1</v>
       </c>
-      <c r="D92" s="31" t="s">
-        <v>41</v>
-      </c>
+      <c r="D92" s="31"/>
       <c r="E92" s="32" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F92" s="34">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G92" s="38" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="H92" s="38"/>
       <c r="I92" s="26"/>
@@ -26816,22 +26846,20 @@
         <v>38</v>
       </c>
       <c r="B93" s="28">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C93" s="29">
         <v>1</v>
       </c>
-      <c r="D93" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E93" s="28" t="s">
-        <v>51</v>
+      <c r="D93" s="31"/>
+      <c r="E93" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="F93" s="34">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="H93" s="38"/>
       <c r="I93" s="26"/>
@@ -27088,7 +27116,9 @@
       <c r="F94" s="34">
         <v>7</v>
       </c>
-      <c r="G94" s="38"/>
+      <c r="G94" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="H94" s="38"/>
       <c r="I94" s="26"/>
       <c r="J94" s="26"/>
@@ -27328,6 +27358,9 @@
       <c r="IJ94" s="26"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IJ94">
+    <sortCondition ref="G2:G94"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -27368,37 +27401,37 @@
       <c r="B1" s="43"/>
       <c r="C1" s="44"/>
       <c r="D1" s="45"/>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
       <c r="H1" s="59"/>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="102" t="s">
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="104" t="s">
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106" t="s">
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="97" t="s">
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
       <c r="X1" s="77"/>
       <c r="Y1" s="46"/>
     </row>
@@ -27473,7 +27506,7 @@
         <v>24</v>
       </c>
       <c r="X2" s="78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y2" s="52" t="s">
         <v>5</v>
@@ -27484,20 +27517,20 @@
         <v>38</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="32" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>6</v>
@@ -27563,7 +27596,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="32" t="s">
@@ -27573,10 +27606,10 @@
         <v>26</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>7</v>
@@ -27632,20 +27665,20 @@
         <v>38</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="32" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>6</v>
@@ -27703,20 +27736,20 @@
         <v>38</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="32" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>6</v>
@@ -27766,20 +27799,20 @@
         <v>38</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="32" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="55" t="s">
         <v>6</v>
@@ -27906,7 +27939,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -27914,14 +27947,14 @@
         <v>38</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="75" t="s">
         <v>93</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>94</v>
       </c>
       <c r="F2" s="71" t="s">
         <v>32</v>
@@ -27944,17 +27977,17 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17">
@@ -27974,17 +28007,17 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="84" t="s">
         <v>97</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>98</v>
       </c>
       <c r="G4" s="85">
         <f>(9.5/141.5)*100</f>
@@ -28004,14 +28037,14 @@
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>33</v>
@@ -28034,10 +28067,10 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
@@ -28045,7 +28078,7 @@
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="81"/>
       <c r="E7" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="90">
@@ -28061,7 +28094,7 @@
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="90">
@@ -28105,14 +28138,14 @@
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="108" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="109"/>
+      <c r="G1" s="110"/>
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
